--- a/Logs/3/outSVM_SVCLAB.xlsx
+++ b/Logs/3/outSVM_SVCLAB.xlsx
@@ -74,12 +74,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -88,13 +103,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,7 +416,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,117 +430,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.81</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.97</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.97</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.98</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.97</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.98</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
